--- a/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.498</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.638</v>
+        <v>17.044</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.399</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.182</v>
+        <v>20.549</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.717</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.48</v>
+        <v>12.404</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.366990342285717</v>
+        <v>2.825555525790577</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.7916425127097</v>
+        <v>19.95585560984308</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.34777374514024</v>
+        <v>25.18735846020059</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.33236436532962</v>
+        <v>-2.831367093488566</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.59604214924639</v>
+        <v>16.56716005669499</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.73857634389415</v>
+        <v>22.49136743082039</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.36030583031384</v>
+        <v>8.934275474947576</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.21968300732916</v>
+        <v>26.22393061918003</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.5955671957954</v>
+        <v>31.504099660291</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.31615347809133</v>
+        <v>25.60903082856677</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.64248706263212</v>
+        <v>30.44137770119515</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.08582011807496</v>
+        <v>34.39299912457303</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.970560555654807</v>
+        <v>5.824534783024898</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.48690521071335</v>
+        <v>21.47043586532619</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.9420691512549</v>
+        <v>31.35275720988022</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.178113672649396</v>
+        <v>4.574122329704899</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.71150526797651</v>
+        <v>24.41219859151216</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.87864791836419</v>
+        <v>30.47671757588072</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4.758370557646205</v>
+        <v>-8.616418542862149</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.94214797406686</v>
+        <v>13.84842206610849</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.76018070737766</v>
+        <v>20.71594543661901</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.512801482406877</v>
+        <v>3.061597336267742</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.3800671381627</v>
+        <v>23.08421781627568</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.23096093115258</v>
+        <v>8.338152671275003</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.43398791633458</v>
+        <v>31.43443469522254</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.062470564087</v>
+        <v>34.93993264027807</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>13.79694363560738</v>
+        <v>6.536740049085491</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.1322303486985</v>
+        <v>32.69120621205398</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.24921044578586</v>
+        <v>36.66086796511223</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.2757451452766</v>
+        <v>20.00116808534634</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>46.82336358432396</v>
+        <v>43.31230387097989</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.30169313446348</v>
+        <v>46.85041180145631</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.07348455652751</v>
+        <v>48.20223598233379</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>58.57528892414471</v>
+        <v>54.13861961756592</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>63.0407004940131</v>
+        <v>57.44245187399862</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.79424633888936</v>
+        <v>22.23356445569086</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53.53864349384781</v>
+        <v>45.86961700320371</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60.5821379588953</v>
+        <v>53.46005187576766</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.47313092150592</v>
+        <v>13.80034348620364</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.93383003261949</v>
+        <v>40.31549420392912</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.18434427555641</v>
+        <v>44.8642178941763</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.75368193927392</v>
+        <v>5.897701721356224</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.69046069626935</v>
+        <v>35.92372978655362</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.49512259634925</v>
+        <v>41.07475105127168</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.63100177863053</v>
+        <v>19.59709627170766</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>48.33060985586524</v>
+        <v>46.35890486568678</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.44797453195103</v>
+        <v>3.908045363730292</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.15577856572556</v>
+        <v>28.38353475925601</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>37.84297605745108</v>
+        <v>32.15366278522578</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>13.32412913668108</v>
+        <v>3.877758322937954</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.21746787409503</v>
+        <v>31.59405303018329</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>41.39935967354434</v>
+        <v>35.86338459545642</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.84505524994855</v>
+        <v>17.26313869116354</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>46.88107521169562</v>
+        <v>41.96631196066879</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.41621483131451</v>
+        <v>45.77151170024093</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.28351391735109</v>
+        <v>47.79730252710246</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.24895914176346</v>
+        <v>53.94493808122886</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>63.83502529393623</v>
+        <v>57.72343357166594</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.88682058821461</v>
+        <v>19.83164893561165</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>54.39937323136186</v>
+        <v>45.45448957715218</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>61.53221829141166</v>
+        <v>53.32692578887317</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>15.10836264781767</v>
+        <v>9.430829669380181</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.08491232645366</v>
+        <v>37.51864836681857</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.41053824036226</v>
+        <v>42.49703239872755</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.85828944128651</v>
+        <v>3.419282947229707</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.36536245840455</v>
+        <v>35.22621632949559</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>43.25306343514736</v>
+        <v>40.86378936284464</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.78426471606287</v>
+        <v>17.04837185789396</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.9829885977184</v>
+        <v>45.39747821619613</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.943070421197479</v>
+        <v>1.655737700591878</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.51776269624335</v>
+        <v>23.49195697217746</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.23386898090595</v>
+        <v>29.57978501437294</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.349818540589295</v>
+        <v>1.920791078800953</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.88491349813494</v>
+        <v>26.64834928378325</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.20430676747498</v>
+        <v>33.54226806995352</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.73097251516299</v>
+        <v>13.82698543002724</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.70308122350725</v>
+        <v>35.86633669691146</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.23375069653187</v>
+        <v>42.01079691713528</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.95859684133049</v>
+        <v>37.45355127921547</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.21013655614827</v>
+        <v>43.32180389091761</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>52.89541285340162</v>
+        <v>48.5428776307633</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.84196753348615</v>
+        <v>12.25233733026284</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.10841081220804</v>
+        <v>34.14128246466418</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.80702027922112</v>
+        <v>45.15580488858446</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.01906465384072</v>
+        <v>6.099737797003677</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.78434296702497</v>
+        <v>31.32472246128302</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39.14337557262957</v>
+        <v>38.67439874223189</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.704675986137048</v>
+        <v>-0.7436207644792105</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.76709652696953</v>
+        <v>27.82141005646568</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.79727158777734</v>
+        <v>36.14425870368653</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.37293782301358</v>
+        <v>11.22078558329525</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.4321264286565</v>
+        <v>36.68042632070251</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.34714085822255</v>
+        <v>29.20515214555866</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.53590427760536</v>
+        <v>21.6531083878634</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.79987941546977</v>
+        <v>29.85955015571656</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.0338605961899</v>
+        <v>34.35421113929443</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2.488214442808098</v>
+        <v>0.114668946035998</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.73535115197864</v>
+        <v>23.26841137381321</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43.1203350503744</v>
+        <v>32.50240690461148</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5.239599092968857</v>
+        <v>3.12372815721605</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.12163993471217</v>
+        <v>25.93774062934517</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.65263971545075</v>
+        <v>33.42255760008118</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.904920343045272</v>
+        <v>-10.79620016899565</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.39212762683879</v>
+        <v>15.03862106436007</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.61241955304028</v>
+        <v>23.51450441191181</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11.514016134501</v>
+        <v>5.001552520129163</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.65373825679335</v>
+        <v>28.02779293412792</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.97286517935924</v>
+        <v>35.58223760857983</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.20434455676789</v>
+        <v>33.46141333048767</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.59648300231098</v>
+        <v>41.85948341074388</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>56.51389582338454</v>
+        <v>48.38484092599954</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.807976100413665</v>
+        <v>3.79722728615247</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.62922104902977</v>
+        <v>32.47073383775445</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.56791247508635</v>
+        <v>43.74301297773572</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.41079160808422</v>
+        <v>50.9499431758679</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.76027350492073</v>
+        <v>50.38311046751362</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>63.29889539063583</v>
+        <v>59.6736860102034</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>68.54417779014962</v>
+        <v>63.39067308168818</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.74686065808803</v>
+        <v>22.62406818209357</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.44869145473522</v>
+        <v>54.79364297720956</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>67.43877607279873</v>
+        <v>61.92413664372334</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.56946119075537</v>
+        <v>16.55764862428088</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.29453552982029</v>
+        <v>46.25864705260341</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.8355619113775</v>
+        <v>51.61580536842187</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14.13613772631761</v>
+        <v>9.014411091324437</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.57627748854507</v>
+        <v>42.6481257123407</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.70211264223926</v>
+        <v>48.71462662168562</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.15886190928331</v>
+        <v>26.86134741329803</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.04938637698095</v>
+        <v>56.83864014871121</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.41065573264846</v>
+        <v>62.24563356850562</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>61.92541237788567</v>
+        <v>68.61690090737106</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>77.48496617410304</v>
+        <v>77.75017277152217</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.3275564014896</v>
+        <v>83.35292185126769</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.59192795458713</v>
+        <v>32.69701521160859</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.73962116418545</v>
+        <v>70.58748642689528</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>82.17179896831455</v>
+        <v>78.93717240544164</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.13584531520717</v>
+        <v>50.42217379449473</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50.55564831706415</v>
+        <v>49.91491400199311</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.55869572512228</v>
+        <v>59.39076093581095</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>69.94221406429989</v>
+        <v>63.69741650079435</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.43838989785188</v>
+        <v>20.56830750978488</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>60.92522755174608</v>
+        <v>54.95749677663264</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>69.02961499408565</v>
+        <v>62.56452495606172</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.74357556847772</v>
+        <v>13.93717939339906</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.96420738977432</v>
+        <v>45.32632666348903</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>51.55158150743777</v>
+        <v>50.90839912612827</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>15.90063969021096</v>
+        <v>8.601076082707461</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.88863886264367</v>
+        <v>44.14646773097333</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.06571336652146</v>
+        <v>50.46766372225675</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.96839846418987</v>
+        <v>26.39591624815775</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.33840398115637</v>
+        <v>58.07706187365971</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>64.74451750109651</v>
+        <v>63.71106170994973</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>64.35158838270682</v>
+        <v>70.62725170414299</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.35479440836268</v>
+        <v>79.95219639235748</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>86.29829597014802</v>
+        <v>86.05261939188188</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.91397720714791</v>
+        <v>33.07609821429439</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>76.81579582864381</v>
+        <v>73.31453023735229</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>85.31850431152507</v>
+        <v>81.8782485828736</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.58486498149868</v>
+        <v>44.09847315559996</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.72046561699883</v>
+        <v>35.95353457592638</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.97410408297014</v>
+        <v>45.24563388598656</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>56.48597749760867</v>
+        <v>51.33793215276189</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11.88471962534467</v>
+        <v>9.965750780086379</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.00650682780617</v>
+        <v>40.30916404275477</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.68350345269059</v>
+        <v>51.12783334057266</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.59343118213065</v>
+        <v>11.02979075066236</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.72257030163407</v>
+        <v>39.74198442475807</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.4113200161128</v>
+        <v>48.09321239945866</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.244115293000365</v>
+        <v>4.291186829146817</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.91988228422692</v>
+        <v>36.80516882569236</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.31457332406642</v>
+        <v>46.26218486217168</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.1227092378758</v>
+        <v>20.66047843123186</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.46907239012598</v>
+        <v>49.63976803058377</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.94083166406035</v>
+        <v>58.06868351980297</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.19540033685421</v>
+        <v>56.68665104358244</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.58821092230542</v>
+        <v>66.3028764260547</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.74448412376465</v>
+        <v>74.31282829817567</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.96618911962718</v>
+        <v>21.86863312195116</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>58.68523308474159</v>
+        <v>58.4232516415686</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.86398391464827</v>
+        <v>70.75883859232347</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4.351095610295771</v>
+        <v>4.283246857533204</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.68212094900429</v>
+        <v>20.32122064568618</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.7481564782905</v>
+        <v>25.88968129827015</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.8743582330931146</v>
+        <v>-0.9446520210348197</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.07472800021444</v>
+        <v>17.21691365130684</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.67544100863384</v>
+        <v>23.52269548956226</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.53863576924753</v>
+        <v>11.8356520225156</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.37230568515869</v>
+        <v>28.02281947719202</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.27399341728905</v>
+        <v>33.64308087921201</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.94575461912405</v>
+        <v>26.55648935540293</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.67155883909897</v>
+        <v>31.08541793763539</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.72578070792709</v>
+        <v>35.5282999764795</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.5254490038551509</v>
+        <v>4.594067586923664</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.85577134375342</v>
+        <v>20.11757278147133</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.56512145390171</v>
+        <v>28.7436496558049</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.725332023972598</v>
+        <v>2.977690152501037</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.41978236493463</v>
+        <v>22.54980389941406</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.13422439530854</v>
+        <v>28.95372292731192</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.382620078551347</v>
+        <v>-7.864026501774468</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>17.28487240241606</v>
+        <v>14.29963543310472</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.60242576941118</v>
+        <v>21.55149888679351</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.4888847743222</v>
+        <v>4.887435348698006</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.5768664644362</v>
+        <v>24.64161919062931</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.63070013181713</v>
+        <v>8.062255191417542</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.71681230610092</v>
+        <v>29.99912189781833</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.93963273797258</v>
+        <v>33.95273785028058</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>8.735228081642244</v>
+        <v>6.334905531788289</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.73017741443114</v>
+        <v>31.17643792211934</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.39868105761909</v>
+        <v>35.65355309342027</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.58168484294301</v>
+        <v>20.68638110486669</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.08106352951247</v>
+        <v>42.82731608193502</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.16689099484146</v>
+        <v>46.81771064918792</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.53504939443126</v>
+        <v>45.78399379782483</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>49.44078638405914</v>
+        <v>51.3299179257446</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.6200349673091</v>
+        <v>55.33589635522961</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>15.16527938629631</v>
+        <v>17.38390788903132</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.68821523561649</v>
+        <v>40.83718171468222</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.114384371893</v>
+        <v>47.30304040356823</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.29758346365163</v>
+        <v>9.106993122624868</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.89576566382573</v>
+        <v>35.22848915855274</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.78968420987444</v>
+        <v>40.29688316417871</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>9.117565778995166</v>
+        <v>3.057204589378834</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.99525461623011</v>
+        <v>32.63745406370606</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.40568514016687</v>
+        <v>38.37695531257866</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.58690804866448</v>
+        <v>17.6049380426</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.48442132406054</v>
+        <v>43.96942997190872</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.307647656132286</v>
+        <v>3.541111628077953</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.89903708739918</v>
+        <v>26.82479438183011</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.19000973024623</v>
+        <v>31.04873332573521</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.641921336822933</v>
+        <v>3.413575482955341</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.19547569511752</v>
+        <v>29.78025615047155</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.93932444245153</v>
+        <v>34.56348784413778</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.51364433388804</v>
+        <v>17.63641911629526</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.50190852423291</v>
+        <v>41.136698931876</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.65367726741616</v>
+        <v>45.3999311772002</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>40.07458726835713</v>
+        <v>44.86118463448931</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.44072526589077</v>
+        <v>50.58359639933843</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>53.75096431084256</v>
+        <v>55.06903588442975</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.5966858008761</v>
+        <v>14.48014921794914</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>42.88853834141702</v>
+        <v>39.88191356234213</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.41841959186089</v>
+        <v>46.65819352478037</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.32747012221829</v>
+        <v>4.403569991735626</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.43981993207973</v>
+        <v>32.04940761033035</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.42015719582559</v>
+        <v>37.55225060647591</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.524798486881652</v>
+        <v>0.03838798301346458</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.97092100434522</v>
+        <v>31.34481746775709</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.47689101543516</v>
+        <v>37.57629320024051</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.02464031786264</v>
+        <v>14.43540945208327</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.41964103686161</v>
+        <v>42.33842319110967</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.910444582369705</v>
+        <v>2.270927484159515</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.35459238928564</v>
+        <v>22.84204651466661</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.58914407386461</v>
+        <v>29.3134448662631</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.986512856719281</v>
+        <v>2.51969802549791</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>23.16620228094542</v>
+        <v>25.81464376871001</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.95321690877002</v>
+        <v>33.14292149923127</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.73035510872999</v>
+        <v>15.3267248532147</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.64103656852359</v>
+        <v>36.0892072512631</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.70577360543849</v>
+        <v>42.6208059536248</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.32625431971443</v>
+        <v>36.57919390981611</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.94556969536045</v>
+        <v>42.05626334868043</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.25176462713424</v>
+        <v>47.77285902632477</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.15697381072943</v>
+        <v>9.172667108334037</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.18121455551849</v>
+        <v>30.79064442434143</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.14700780208856</v>
+        <v>40.60879273041986</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>11.47675723124148</v>
+        <v>2.622858380545072</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.36751817183052</v>
+        <v>27.38212521068497</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.2856307797473</v>
+        <v>35.08686814005043</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.851590559974422</v>
+        <v>-2.382626512636644</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.84165417150384</v>
+        <v>25.65502066613338</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.3843738340148</v>
+        <v>34.37995042026038</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>18.09937773685656</v>
+        <v>10.45409616942138</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>37.34486038726155</v>
+        <v>35.44368672047636</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.10592567342281</v>
+        <v>31.10511084113572</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.16443140010371</v>
+        <v>23.03935031450989</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.13127215243215</v>
+        <v>31.57205877720129</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>43.0072374468478</v>
+        <v>36.90112298204795</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2.01913300210036</v>
+        <v>0.5182008783683116</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.46782073081128</v>
+        <v>24.38265766327052</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.16389758254581</v>
+        <v>32.43270784526807</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.08307980192891</v>
+        <v>3.915246661899015</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>31.63194944193429</v>
+        <v>27.22937832707877</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.68375541964053</v>
+        <v>35.00329186039821</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.7613829810352888</v>
+        <v>-10.09883246989146</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.06178876968946</v>
+        <v>16.30232885658035</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.75231201371832</v>
+        <v>25.10558811061232</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.56539566367145</v>
+        <v>7.920491716832775</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.41519613290558</v>
+        <v>31.45150369562836</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.27067482954531</v>
+        <v>39.29773426092368</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.00378480010158</v>
+        <v>36.27139752646244</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.56477060688953</v>
+        <v>44.55158506404413</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>57.97187420983665</v>
+        <v>51.68824103449828</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.2298160558503</v>
+        <v>4.330851548315607</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>45.02227863775155</v>
+        <v>34.67661397616483</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.231746437792</v>
+        <v>44.67625757233847</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>50.21957573830326</v>
+        <v>49.08497284403645</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.08560390154464</v>
+        <v>46.80830744542072</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>58.33272153089026</v>
+        <v>56.30752617789524</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>63.33909047559053</v>
+        <v>61.1070008308542</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.97051679022073</v>
+        <v>17.9104347035675</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>52.83802183658469</v>
+        <v>50.63488347904801</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>60.28544917181052</v>
+        <v>56.78447881905361</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.01600796606597</v>
+        <v>14.84312024880125</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>46.39971297107279</v>
+        <v>44.92933323800193</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.54539926532321</v>
+        <v>50.73226896873012</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.57483942183538</v>
+        <v>6.578540784424291</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.53203958860819</v>
+        <v>40.64847631699317</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>48.22080983090947</v>
+        <v>47.21978013367939</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.52032974787125</v>
+        <v>26.54206832070869</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>58.11300038667142</v>
+        <v>56.90815908542769</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>63.09175492483268</v>
+        <v>62.76507677607883</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>61.77578475713027</v>
+        <v>66.96668414103405</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>76.53072209816274</v>
+        <v>75.87558508556049</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.96875566319132</v>
+        <v>82.30109935014744</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.06590706194007</v>
+        <v>28.62209939338856</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.17234221807503</v>
+        <v>68.04199598116048</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>79.00290261782665</v>
+        <v>75.27639600685283</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>50.23841064999442</v>
+        <v>47.89245652674268</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.13146321596985</v>
+        <v>45.49186070102866</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>58.83813773656006</v>
+        <v>55.13141420320876</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>63.99561500859473</v>
+        <v>60.52598934359813</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>19.92294408775054</v>
+        <v>15.0097377054106</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>53.57289491355311</v>
+        <v>49.89203778157851</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>61.15183181813536</v>
+        <v>56.54656909317905</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.64783720732517</v>
+        <v>11.94635537009067</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46.52750747592579</v>
+        <v>43.67091676501366</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.72814878969068</v>
+        <v>49.70969503032752</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.71218309127827</v>
+        <v>5.69036750556471</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>44.21769348751426</v>
+        <v>41.61558554188073</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.96721878984113</v>
+        <v>48.4539598586676</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.68710527448704</v>
+        <v>25.5345297983806</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>59.75965151504018</v>
+        <v>57.55420974729834</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>64.7915782710848</v>
+        <v>63.64916390381969</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>63.52816383340094</v>
+        <v>68.16854372115975</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>78.72587630554915</v>
+        <v>77.24543099121991</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.27566557800692</v>
+        <v>84.17276643966329</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.72509054138671</v>
+        <v>28.21678167933978</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>73.58627165960824</v>
+        <v>69.92069055580885</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>81.50046105945177</v>
+        <v>77.40274765394858</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>43.07098287493224</v>
+        <v>43.22010322048298</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.01861398394494</v>
+        <v>34.33289165798472</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.9463785840746</v>
+        <v>43.84630435736484</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>53.11422892350267</v>
+        <v>50.77818753629603</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.10920353909144</v>
+        <v>7.341001737042193</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>40.37840302688775</v>
+        <v>38.20528547142689</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>49.38442002419362</v>
+        <v>47.86705636246635</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.52702468902805</v>
+        <v>10.48654816847058</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>40.29894141112275</v>
+        <v>39.52030526002392</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.51627789069977</v>
+        <v>48.19888427705722</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.34171446161718</v>
+        <v>3.119479931452403</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.51701563641818</v>
+        <v>35.99760363324732</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.39053973580099</v>
+        <v>45.82531534062456</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.1173279250939</v>
+        <v>21.59814114491129</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>49.15049847600993</v>
+        <v>50.90198551373805</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>55.1661376819115</v>
+        <v>59.66129723683899</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>50.86338029450587</v>
+        <v>56.99485937139809</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>64.40949593894659</v>
+        <v>66.42696681395617</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>71.06409478053284</v>
+        <v>75.0420047672667</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>23.27579731618861</v>
+        <v>19.89855979351287</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.92945848276475</v>
+        <v>57.95770642894038</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>67.39082593598572</v>
+        <v>69.07582837479039</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.87703246762916</v>
+        <v>4.021299052252967</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.73677816637796</v>
+        <v>22.79944565351935</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.0489560473262</v>
+        <v>27.74441154956014</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.7286725822210167</v>
+        <v>-0.924098015094085</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.47336436019118</v>
+        <v>20.34046739750647</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.34619797710174</v>
+        <v>25.94019739175086</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.29223452995854</v>
+        <v>11.7892401381729</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.57259031989247</v>
+        <v>30.74207093452262</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.71243527348762</v>
+        <v>35.73303750387848</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.11641198927231</v>
+        <v>28.81083669663144</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.84377790013711</v>
+        <v>34.30012155212784</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>43.06216741311237</v>
+        <v>38.14028407794966</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>4.196854937654066</v>
+        <v>7.29574602413555</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.37531266340117</v>
+        <v>24.85251784620532</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>39.45923526814121</v>
+        <v>34.10709309730678</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>7.595154108622607</v>
+        <v>9.116254784229586</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.72087333774601</v>
+        <v>31.10164356526283</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.60713446617205</v>
+        <v>36.56259593439759</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.256797152745318</v>
+        <v>-3.38135000611905</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.09856421705413</v>
+        <v>21.51512927816796</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.60607074406938</v>
+        <v>27.69916763585798</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.67822583255065</v>
+        <v>9.642394687098456</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.11860335836721</v>
+        <v>31.83230311665591</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.70788906104688</v>
+        <v>9.892623554480259</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.38957668384758</v>
+        <v>34.71619294012586</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>38.75748483082561</v>
+        <v>37.88387001547966</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.12650047381588</v>
+        <v>8.739286447545762</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.99096643253836</v>
+        <v>36.84975049833101</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.81987057996023</v>
+        <v>40.43686044081661</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.16953921514704</v>
+        <v>23.15709680765743</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>47.18029001118492</v>
+        <v>48.21158809040455</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>51.40649838563075</v>
+        <v>51.40873256379041</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>47.8408173274602</v>
+        <v>51.57223601159812</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>58.78041120587709</v>
+        <v>58.13866597747126</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>63.00611571800852</v>
+        <v>61.36002350447135</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.95875915882321</v>
+        <v>23.72489626706881</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.43156858369645</v>
+        <v>49.36014660540381</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>60.07852811632343</v>
+        <v>56.27815082853328</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.84539554380235</v>
+        <v>18.27742065282458</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>42.94362211732408</v>
+        <v>47.02125750119993</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.89697622204645</v>
+        <v>50.88913278072964</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>13.18137523929158</v>
+        <v>11.01218884454741</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.82296712507185</v>
+        <v>43.56200389552667</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.29910613144897</v>
+        <v>47.94202545120999</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.75513240508203</v>
+        <v>26.03090849480479</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>52.07158584853973</v>
+        <v>55.04213562988377</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.95509552811207</v>
+        <v>5.792024240930424</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.14738208612565</v>
+        <v>31.99938151002121</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>37.57339040223224</v>
+        <v>35.41298951418502</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.69119217438632</v>
+        <v>6.419256428448794</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.12014649526128</v>
+        <v>36.09673604203105</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.01328279643458</v>
+        <v>39.96234068549639</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.77481091636505</v>
+        <v>20.75227646464941</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>47.27959625327822</v>
+        <v>47.20342835346569</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>51.56201996308982</v>
+        <v>50.64879153449582</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.08992635240944</v>
+        <v>51.50259625724286</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>59.49764993842891</v>
+        <v>58.27227696441051</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>63.84385787334381</v>
+        <v>61.96095621533136</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.08729860039097</v>
+        <v>21.62933039405181</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>54.33712309645033</v>
+        <v>49.25964199038822</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>61.07249782922388</v>
+        <v>56.44354189025768</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.47773520398983</v>
+        <v>14.05751259824319</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>42.09687447528846</v>
+        <v>44.38020457993778</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>47.12518538341418</v>
+        <v>48.64917619338359</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.2891122115278</v>
+        <v>8.685996351549852</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>40.50659475299688</v>
+        <v>43.02372311566968</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.06560162349957</v>
+        <v>47.85795026525102</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.9092173001586</v>
+        <v>23.61790221412655</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>52.72968445719028</v>
+        <v>54.2226718232916</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.567992207663034</v>
+        <v>3.925678531509796</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.59500312881357</v>
+        <v>27.45419990823416</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.06265077692488</v>
+        <v>33.21337575348291</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>7.877272177391464</v>
+        <v>4.968776365711836</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.91242421320719</v>
+        <v>31.61271479589574</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.95713612475783</v>
+        <v>38.13446447036607</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.80164258030893</v>
+        <v>17.8336614490118</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>39.21139621747596</v>
+        <v>41.58105750519584</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.50166732698919</v>
+        <v>47.39380823289967</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.90168049199893</v>
+        <v>41.84409941715096</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>47.56894360288597</v>
+        <v>48.3688214726438</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>53.0256963462265</v>
+        <v>53.45675295876822</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.19533572353422</v>
+        <v>14.78787146660322</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>41.15010477178858</v>
+        <v>38.64949698732896</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>49.47061688713662</v>
+        <v>48.98846460412518</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.56085225145447</v>
+        <v>11.30552462820362</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.93754979591918</v>
+        <v>38.73722155348742</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.01116618204708</v>
+        <v>45.40383705670583</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.349837887087656</v>
+        <v>5.199569273285455</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.08820782117259</v>
+        <v>36.26350364511431</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.80284337895201</v>
+        <v>43.81284727625142</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.69086081138258</v>
+        <v>18.50426831149828</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>42.34163353202403</v>
+        <v>46.19114930786832</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.81390766378089</v>
+        <v>37.34405613663415</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.76018873618019</v>
+        <v>29.80742208638684</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>42.58296410289336</v>
+        <v>38.94559327108641</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>48.55482977876297</v>
+        <v>43.25458434893619</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.089902761058463</v>
+        <v>6.680132314258193</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.23842697184685</v>
+        <v>32.38042050966607</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>46.1959732852224</v>
+        <v>40.64924886321083</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.987902653794014</v>
+        <v>6.163574600163114</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.53428077777675</v>
+        <v>31.01788115049832</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.77114078307837</v>
+        <v>37.87363599301577</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.336760739232889</v>
+        <v>-7.925340097358415</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>23.69473973045968</v>
+        <v>20.21993103332827</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.58984789964641</v>
+        <v>27.98345798819975</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.83030501527943</v>
+        <v>9.365894463380767</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.61281258341545</v>
+        <v>34.45140884408949</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.64734195026831</v>
+        <v>41.37093952358352</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>39.69501829346422</v>
+        <v>39.22770621410175</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.70072979578718</v>
+        <v>48.3659034175412</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>60.3152886398932</v>
+        <v>54.52918448804721</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.65554726996783</v>
+        <v>7.916901666564726</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.4877619740059</v>
+        <v>39.033908674131</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.97883977851259</v>
+        <v>49.25203913503628</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.86424766617832</v>
+        <v>58.94599191937321</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.95683520949747</v>
+        <v>58.28773708811121</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>67.09143371771437</v>
+        <v>68.46546328619306</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>72.0610738707561</v>
+        <v>72.02617238374972</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.29541482970054</v>
+        <v>28.82898909502354</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>62.96741695343808</v>
+        <v>63.62864276752046</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>70.50529164698881</v>
+        <v>69.71491821449493</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.28148146102643</v>
+        <v>19.24416053816569</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>48.71666038453767</v>
+        <v>51.06462309579227</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>53.94315758620152</v>
+        <v>55.69146930222536</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.63704135128908</v>
+        <v>11.40741048843066</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.86223126968967</v>
+        <v>47.44122798297458</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>51.64034133160975</v>
+        <v>52.68071598463362</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.44224218736642</v>
+        <v>30.73608379843176</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>61.01983466119724</v>
+        <v>62.85255703310164</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.07677851153159</v>
+        <v>67.52244459619796</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>65.40135441986705</v>
+        <v>73.78527684333474</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.61253618247528</v>
+        <v>83.61645265168741</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>87.13406012661737</v>
+        <v>88.85812468039263</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>37.4034072638327</v>
+        <v>36.12073755343373</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>77.63171761964948</v>
+        <v>76.53578352721</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>85.58525378109218</v>
+        <v>83.71295695931067</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>57.59487139660526</v>
+        <v>58.53135565573179</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>53.75542708180124</v>
+        <v>57.94408007192412</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>68.3580126286776</v>
+        <v>68.2951996642275</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>73.46640890558122</v>
+        <v>72.43540454020898</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.98818796948725</v>
+        <v>26.87748227568078</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>64.45290035764708</v>
+        <v>63.90423566623094</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>72.10484220237426</v>
+        <v>70.43870020169624</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.46404932124645</v>
+        <v>16.7344403057634</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>49.39991861548845</v>
+        <v>50.24971339721418</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>54.67162513583248</v>
+        <v>55.07048626132087</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>18.41795109158364</v>
+        <v>11.10487352656903</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>48.1966750419377</v>
+        <v>49.05791181663203</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.02476588622218</v>
+        <v>54.51700435035339</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.2660522486319</v>
+        <v>30.3681607730003</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.32809214365063</v>
+        <v>64.19521056037829</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>68.42877867235291</v>
+        <v>69.06082878890439</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>67.84436544693965</v>
+        <v>75.88191230708577</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>84.50313026541586</v>
+        <v>85.89819451925908</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>90.12509544118906</v>
+        <v>91.62137310864075</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>39.74097358969811</v>
+        <v>36.56981741188135</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>80.73122044249348</v>
+        <v>79.34134498880501</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>88.7535548711281</v>
+        <v>86.7002982973394</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>48.21821508330631</v>
+        <v>52.9197811744607</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>41.10381139564324</v>
+        <v>44.85894459513963</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>53.93255822366505</v>
+        <v>55.07747528616213</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>60.17899958098284</v>
+        <v>60.95068222236408</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.63038265393729</v>
+        <v>17.18698288081317</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>48.682610413073</v>
+        <v>50.15423028657559</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>57.92526867804228</v>
+        <v>59.91411809544633</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.49559270431679</v>
+        <v>14.69988704666854</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.30965389748833</v>
+        <v>45.51036468179883</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.69806991420614</v>
+        <v>53.14840589725192</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.983845573825622</v>
+        <v>7.823231591981225</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.41682240804931</v>
+        <v>42.71333182271862</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.47948205209851</v>
+        <v>51.36272787329555</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.62150600911764</v>
+        <v>25.69516395306765</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.63057160523364</v>
+        <v>56.79225685434248</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.81174033882454</v>
+        <v>64.50135114601616</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>52.8774675335195</v>
+        <v>63.16540124709751</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>67.90178707261087</v>
+        <v>73.52475263508688</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.74970312964463</v>
+        <v>81.11595317777571</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.99034647474587</v>
+        <v>26.60908982999722</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>62.75168555081195</v>
+        <v>65.68562378579571</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>72.47339702271759</v>
+        <v>76.86416920591574</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.259294725621149</v>
+        <v>2.576694257371436</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.2320802485456</v>
+        <v>14.77796015067287</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.2146094733861</v>
+        <v>19.93734729730332</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-7.543058956533145</v>
+        <v>-4.29246492431022</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.372217275233558</v>
+        <v>9.524373457766355</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.880610590493</v>
+        <v>15.36691627085999</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.767392208713342</v>
+        <v>6.634655280061802</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.82109205312499</v>
+        <v>18.94942376533044</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.64198251770966</v>
+        <v>24.15680624451331</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.91171862071877</v>
+        <v>18.38466461723709</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.00735646830364</v>
+        <v>21.42297360284196</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.07602869804349</v>
+        <v>25.78496881100933</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-7.23862325727248</v>
+        <v>-0.1621445317295098</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.29217099828652</v>
+        <v>11.33250119514761</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.87444356749351</v>
+        <v>19.09467785420857</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.5700120878420014</v>
+        <v>1.969844215629678</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.23963945373344</v>
+        <v>17.38663391721152</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.92922052422966</v>
+        <v>23.8157624225175</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-10.21915207609038</v>
+        <v>-9.057042486657085</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.209814379810425</v>
+        <v>8.401087967999484</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.49988292152438</v>
+        <v>15.68149889193304</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.450799431172576</v>
+        <v>1.567842329130677</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>18.57964564359986</v>
+        <v>17.12804711618218</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.675963709508114</v>
+        <v>5.85136444193861</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.82957319389502</v>
+        <v>23.6016519387977</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.01995554876018</v>
+        <v>27.33460744901888</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.63079767751079</v>
+        <v>2.265755529514056</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>19.48928490072407</v>
+        <v>22.36636277176178</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.12192690046255</v>
+        <v>26.59359979972661</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.31847003388136</v>
+        <v>14.70572725332571</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.94803855575632</v>
+        <v>32.62113725932829</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.00248027118483</v>
+        <v>36.38881868486217</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.78663802849758</v>
+        <v>36.07099889299603</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.99612994080979</v>
+        <v>40.09794369133677</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.24412776853331</v>
+        <v>44.10966394971656</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>6.702235282285944</v>
+        <v>11.50082800970666</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.28434299507627</v>
+        <v>30.46818641524993</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.66114877985351</v>
+        <v>36.3035473416703</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.757126294615905</v>
+        <v>7.545915142147841</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.2336528400434</v>
+        <v>29.13014800921466</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.15561944252467</v>
+        <v>34.43319596408629</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.781978804550183</v>
+        <v>0.9935666148550304</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.31408906141036</v>
+        <v>25.43577283618643</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.7555278784404</v>
+        <v>31.44099861895382</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>15.99110637897111</v>
+        <v>13.37855549308365</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.8357928562616</v>
+        <v>35.1635762453956</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.367696478320568</v>
+        <v>1.426040881276343</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.0138195502707</v>
+        <v>20.4577258355749</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.27599874671965</v>
+        <v>24.48716556547702</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.5091003104183311</v>
+        <v>-0.6743039456966002</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.91208179166365</v>
+        <v>20.87737089293757</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.62409818628956</v>
+        <v>25.44034968589532</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>13.22326718480756</v>
+        <v>11.65878864874328</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.32937160859489</v>
+        <v>30.867516345222</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.45328099663528</v>
+        <v>34.93444004256735</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>30.27217720498908</v>
+        <v>34.98047999418952</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.93236606695319</v>
+        <v>39.18329901971616</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.31262345877378</v>
+        <v>43.67168831947869</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.085300808432371</v>
+        <v>8.565004883403075</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>31.41690181999264</v>
+        <v>29.37779489654253</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.90296601509122</v>
+        <v>35.55752143673363</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>6.784587460390886</v>
+        <v>2.907960126779621</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.76257048200977</v>
+        <v>25.93679475967322</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.77446541658347</v>
+        <v>31.69989683534754</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.136391393500102</v>
+        <v>-2.100757168703574</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.22288264376888</v>
+        <v>23.97733087828626</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.763740972657</v>
+        <v>30.50352665627625</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.37756466241632</v>
+        <v>10.16394590678591</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.70743981304742</v>
+        <v>33.4070068702642</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.9599315720389</v>
+        <v>0.1510890059694709</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.51064515804772</v>
+        <v>16.58078788665595</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.66562609723949</v>
+        <v>22.68851697085748</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-2.123056257602634</v>
+        <v>-1.642737665933925</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>13.96336287463649</v>
+        <v>16.96242151064408</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.66240873354791</v>
+        <v>23.87887644047647</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>9.497324381034321</v>
+        <v>9.309941120329146</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.57599672076789</v>
+        <v>25.89247770035724</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.56374437530516</v>
+        <v>32.05702409254552</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.76635212343898</v>
+        <v>27.0537252913132</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.71022310322844</v>
+        <v>30.97471032481935</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.03340044819953</v>
+        <v>36.59942383914185</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1.097372694827112</v>
+        <v>3.474578791639331</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.04549320860687</v>
+        <v>20.66157667417587</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.89019793711031</v>
+        <v>29.65935162955611</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>4.92487727644757</v>
+        <v>1.086517622663049</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.73356939850223</v>
+        <v>21.33674626364244</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.6316304096985</v>
+        <v>29.12140850026858</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-3.487881560605717</v>
+        <v>-4.530254594937599</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.20036836466504</v>
+        <v>18.40131158674124</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.72092015291879</v>
+        <v>27.21674278241462</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.535729150939122</v>
+        <v>6.185731678546581</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.76668759868526</v>
+        <v>26.62433859590932</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.08465040975013</v>
+        <v>23.61698275591298</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>17.62840536315899</v>
+        <v>16.02232532355035</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.78425609241803</v>
+        <v>22.63459889299283</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.73211083422545</v>
+        <v>28.19445375382557</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-6.269337062819512</v>
+        <v>-3.328759596074836</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.09803212091711</v>
+        <v>15.7658412414002</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.7562762644775</v>
+        <v>23.59209428338455</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>4.719014799255459</v>
+        <v>4.037783473973583</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.21402579291587</v>
+        <v>23.3044587508659</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.28377133142474</v>
+        <v>30.89195891750851</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-6.775795444190723</v>
+        <v>-10.18579044183906</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>14.77675013908124</v>
+        <v>11.63198984331203</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.48710631380438</v>
+        <v>20.22415269290926</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.288441557596805</v>
+        <v>5.674339550368373</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.15101282716775</v>
+        <v>25.12024357300096</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.0238491054111</v>
+        <v>32.77832665644836</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>30.04187344269277</v>
+        <v>29.86177209775877</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.77409120854811</v>
+        <v>36.38752827035257</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.30287982971984</v>
+        <v>43.70416034525864</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.521285011778791</v>
+        <v>1.482411902826829</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.18824338236828</v>
+        <v>26.99454848962714</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.42501110051023</v>
+        <v>36.56125182059087</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.5980854169547</v>
+        <v>40.51595594120671</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.75980501810984</v>
+        <v>38.08946027589018</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.12865428044153</v>
+        <v>45.65479806204124</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.26397016890404</v>
+        <v>50.80342285874055</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>10.90594115296806</v>
+        <v>12.73860359745829</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.54477041112387</v>
+        <v>40.18484209131005</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.03488048824813</v>
+        <v>46.37481683431388</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.24903057559441</v>
+        <v>14.58861812043047</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.48513689489222</v>
+        <v>40.23612435139218</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.70342147105062</v>
+        <v>46.10511089011803</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.02739789154683</v>
+        <v>5.773805942842131</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.61033837806794</v>
+        <v>34.81730451056448</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.37936904087314</v>
+        <v>41.46340493828149</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.65724865959472</v>
+        <v>23.57209646499273</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>48.17199108994927</v>
+        <v>49.45818928690053</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.22098874143597</v>
+        <v>55.38177222490039</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.00270718976437</v>
+        <v>59.00850274230492</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.86568481623021</v>
+        <v>66.16138544405345</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>70.4845669035052</v>
+        <v>72.90178274732058</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.55743414401858</v>
+        <v>24.58836433000941</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>59.39571413848552</v>
+        <v>58.65376064965516</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>67.33675255786132</v>
+        <v>65.77788497820083</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.55674333125191</v>
+        <v>39.22372035225199</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.72900130701873</v>
+        <v>36.58370288787329</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.5484037736117</v>
+        <v>44.29265851243882</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.83601057251352</v>
+        <v>50.03394348168158</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.78727533115455</v>
+        <v>9.754953740032498</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>41.18920692399146</v>
+        <v>39.23978301979267</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>48.81616740275859</v>
+        <v>45.9686005646296</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>15.83206373333042</v>
+        <v>11.71665463815425</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.5519813020001</v>
+        <v>38.91380004771172</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>43.82950682180156</v>
+        <v>45.06023795781169</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.06237767532363</v>
+        <v>4.759152492699016</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.18019162301999</v>
+        <v>35.55747832739659</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.01471561325454</v>
+        <v>42.51776752787606</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.72361878167674</v>
+        <v>22.47071542594226</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.70647708923249</v>
+        <v>49.92086298503753</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>54.81279384261145</v>
+        <v>56.12447829297945</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>53.63107317249345</v>
+        <v>59.95693137834694</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.92849868708832</v>
+        <v>67.27887244903377</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>72.66140312539214</v>
+        <v>74.52813808679406</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.09794779086412</v>
+        <v>24.03714094346572</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.67247811107283</v>
+        <v>60.25695597478994</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>69.70366772910259</v>
+        <v>67.6829600518971</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.47340898561721</v>
+        <v>34.48141785460191</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.89089610659064</v>
+        <v>25.8867737447816</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.95994710916979</v>
+        <v>33.40981906622775</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>41.20313090118109</v>
+        <v>40.56848531054329</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1.264768818240216</v>
+        <v>2.391015376331637</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.36553464963647</v>
+        <v>28.01415803334991</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.34103769209781</v>
+        <v>37.51399950087667</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.70612879736784</v>
+        <v>9.88677979358957</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.36701778441207</v>
+        <v>34.494777632146</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.6091548827159</v>
+        <v>43.07688388652689</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.759990238574886</v>
+        <v>1.84277213819113</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.60146244031246</v>
+        <v>29.70912076259738</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.5024046553215</v>
+        <v>39.42758572611269</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>19.2494935088638</v>
+        <v>18.16824610752115</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.24012039989741</v>
+        <v>43.00516048328065</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.27975566501577</v>
+        <v>51.66710200335569</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.24389970675379</v>
+        <v>48.86019273435635</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.91392298360486</v>
+        <v>56.46359795249643</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>59.69623353074817</v>
+        <v>65.27867618966309</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.94590146075576</v>
+        <v>15.6859662572465</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.38706010782896</v>
+        <v>48.40258590176424</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>55.886168443758</v>
+        <v>59.19640979039231</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.359650019664088</v>
+        <v>9.340412194955878</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.32413338767506</v>
+        <v>26.51825060381173</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.72426629621728</v>
+        <v>31.4394795411611</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.641322858603909</v>
+        <v>5.777471065911429</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.39626488991119</v>
+        <v>25.22983110167527</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.36633644847198</v>
+        <v>30.80268112094114</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.21861420474821</v>
+        <v>16.62159524294803</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.63275096438853</v>
+        <v>33.95923093848174</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.85769758717793</v>
+        <v>38.92623973547294</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.66219470825486</v>
+        <v>32.38903896662686</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.63901212295034</v>
+        <v>37.24731539891349</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.9368292058466</v>
+        <v>40.99454575876602</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>6.782969200256257</v>
+        <v>13.04769551647117</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.59904193912748</v>
+        <v>28.63764832389995</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>40.81681202633038</v>
+        <v>38.23192135356675</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.188989927126215</v>
+        <v>10.22009755890707</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.18762545030946</v>
+        <v>29.93021797521234</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.16773566549974</v>
+        <v>35.39761867584068</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-2.330731470149161</v>
+        <v>-0.8277956522348191</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.77859197967557</v>
+        <v>21.49214644761447</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.38985257592899</v>
+        <v>27.68348696188868</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.44239645048179</v>
+        <v>9.686378081733888</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.7922541126799</v>
+        <v>29.57985240367457</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>15.99002880178614</v>
+        <v>14.95941699822867</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.67594926302387</v>
+        <v>37.93574403527715</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.15863359904996</v>
+        <v>41.1542184636636</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>15.79077278278902</v>
+        <v>15.16274087649685</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>37.5543767236903</v>
+        <v>41.18136878451678</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.51017072242557</v>
+        <v>44.82600216950669</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.78990188302896</v>
+        <v>27.64248955627848</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.83718930584907</v>
+        <v>50.83255447064052</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>52.17445040279291</v>
+        <v>54.08096884075076</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>49.0056907564598</v>
+        <v>54.68903400955308</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>59.10943261874183</v>
+        <v>60.6081387311594</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.44038311409502</v>
+        <v>63.71773402837887</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.22244345214411</v>
+        <v>29.35349594177401</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>54.17992247076607</v>
+        <v>52.70205584882513</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>61.0015451735505</v>
+        <v>60.0484444204797</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>18.20874793083451</v>
+        <v>19.29818445221832</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.07423785246471</v>
+        <v>45.48882424455708</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.1471439372616</v>
+        <v>49.43306112493364</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>12.81398996482427</v>
+        <v>13.41481699827248</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>38.09274020405944</v>
+        <v>43.07336557007219</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.70104889738578</v>
+        <v>47.53985978414461</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.16068154898364</v>
+        <v>25.86365954748231</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>49.28438968132424</v>
+        <v>52.29793844478715</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.23433715668633</v>
+        <v>10.73087937802038</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.41718251756492</v>
+        <v>35.05357204785709</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.95700921758014</v>
+        <v>38.51838490167782</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.32192774862885</v>
+        <v>12.65872855499165</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>37.63490283656265</v>
+        <v>40.20199468613443</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.65387009562503</v>
+        <v>44.12558422545165</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.36482223522426</v>
+        <v>25.07153199049823</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.89291376418978</v>
+        <v>49.62048713881634</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.28546346361853</v>
+        <v>53.11753150394318</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.21516814013922</v>
+        <v>54.42275169904271</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>59.77576978152656</v>
+        <v>60.54865038647966</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>64.22446443755324</v>
+        <v>64.11312089314887</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.31686718382388</v>
+        <v>27.12869814652615</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>55.03055251162777</v>
+        <v>52.41662819442086</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.93913285368725</v>
+        <v>60.02299724661901</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.86389768920295</v>
+        <v>15.10385616331904</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>40.23722602141919</v>
+        <v>42.83058277756099</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.38336447070051</v>
+        <v>47.17633382415384</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.91249458120058</v>
+        <v>11.0586498274738</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.75268130778561</v>
+        <v>42.45667883881777</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.44195142627937</v>
+        <v>47.37785180435982</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.30949445344015</v>
+        <v>23.45111325744864</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.92456615650343</v>
+        <v>51.43576846410014</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.89276712507457</v>
+        <v>8.71314539911965</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.98560858412836</v>
+        <v>30.49887278486295</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.5408919213879</v>
+        <v>36.21885560495134</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.57616536581819</v>
+        <v>10.9826786677938</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.57855420284114</v>
+        <v>35.65305934444527</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.72015101410895</v>
+        <v>42.13042643606776</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.49977471913792</v>
+        <v>21.97152253371081</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.00566438503682</v>
+        <v>43.9599122126774</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.38072818499109</v>
+        <v>49.73310532108834</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.1955336047633</v>
+        <v>44.56257405159487</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.07929973397295</v>
+        <v>50.43708151897454</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.61275692544051</v>
+        <v>55.39952358354467</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>14.5598765919779</v>
+        <v>19.90753316315865</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.09305287723731</v>
+        <v>41.60269548259809</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.54692651480168</v>
+        <v>52.25673227239507</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.96662177968923</v>
+        <v>12.11673569720866</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.17372139331946</v>
+        <v>37.09844611336915</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.33993781509504</v>
+        <v>43.76264276832347</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.02629625909818</v>
+        <v>7.304454392200672</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.47162702913252</v>
+        <v>35.59399896457322</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.2886357781859</v>
+        <v>43.14060346717902</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.18860625000459</v>
+        <v>18.10221801219307</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.70772409062155</v>
+        <v>43.3163214364875</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.57836293665597</v>
+        <v>35.09811374091737</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.89261874532031</v>
+        <v>27.37584946283014</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>39.73127068104841</v>
+        <v>35.44198291186562</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.78568426902661</v>
+        <v>39.57765292466851</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>4.318350131977543</v>
+        <v>6.411818867609421</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.75171011971448</v>
+        <v>29.18073091331233</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>43.85207332870641</v>
+        <v>37.82201635703287</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>7.247654267094554</v>
+        <v>8.342030829470994</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.54034255296574</v>
+        <v>30.80410696254271</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.86267089518705</v>
+        <v>37.63147520846989</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-2.460843571002751</v>
+        <v>-3.356704155790538</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.1846506331937</v>
+        <v>22.07958076501767</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.17424760405247</v>
+        <v>29.81096244736316</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.40568094821269</v>
+        <v>11.16138614254011</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.97516976355267</v>
+        <v>33.83241632057448</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.09239477992188</v>
+        <v>40.7232963364272</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.42334916153082</v>
+        <v>38.37490670780261</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>50.34499245136693</v>
+        <v>46.60330221115457</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>57.05851993678993</v>
+        <v>52.67950372529566</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>11.52362633862437</v>
+        <v>9.593688594526711</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.44801117537302</v>
+        <v>37.55406674471026</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.06915228654675</v>
+        <v>48.1256994006675</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>54.19272508054253</v>
+        <v>56.27886669089342</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>50.64282909367518</v>
+        <v>55.47490905674857</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>63.70479211823579</v>
+        <v>64.57359814279201</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>68.78114207344426</v>
+        <v>67.93878366463204</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.13310744324553</v>
+        <v>28.49834480448802</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>59.92916566803171</v>
+        <v>60.00852028283126</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67.64897119594542</v>
+        <v>66.55745799928863</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.24455685818343</v>
+        <v>21.29440909924807</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.32070047697541</v>
+        <v>50.43369311457412</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>51.66392174855996</v>
+        <v>55.13833301142169</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.15078950162679</v>
+        <v>15.80863256638275</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.87350935916062</v>
+        <v>48.80625603676551</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.78066273572461</v>
+        <v>54.13383840969809</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.58739932525911</v>
+        <v>32.28009250353447</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.85004510316498</v>
+        <v>61.69044546307528</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>63.01992636546044</v>
+        <v>66.43885039440681</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>62.60704478232974</v>
+        <v>72.49542334088136</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>77.64546807556968</v>
+        <v>81.41219460713708</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>83.29666579228548</v>
+        <v>86.57288259704256</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.79881849833875</v>
+        <v>37.66595155900052</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>73.95898722436117</v>
+        <v>74.55308112941691</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>82.09015078618489</v>
+        <v>82.2283149699462</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>54.90375818128413</v>
+        <v>55.82194597235217</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>51.42774020018868</v>
+        <v>55.12026926234012</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>64.94732778846529</v>
+        <v>64.40005603424223</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>70.15866486670993</v>
+        <v>68.32984701562071</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.81651573808634</v>
+        <v>26.58992556041854</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>61.38538814547579</v>
+        <v>60.26678537438092</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>69.21663662200908</v>
+        <v>67.25860496925795</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.40814229248638</v>
+        <v>18.76281160018522</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.97186051042046</v>
+        <v>49.54923317111017</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.36031239336784</v>
+        <v>54.45482112253292</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.87655125551959</v>
+        <v>15.41969457119549</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>46.1383051139402</v>
+        <v>50.2825534686046</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>52.09546281281425</v>
+        <v>55.83769147531554</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.35965687850119</v>
+        <v>31.85013959971194</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.09405979614618</v>
+        <v>62.92295265462231</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>65.30770433873259</v>
+        <v>67.87417496500998</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>64.99031493120937</v>
+        <v>74.51180390398582</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>80.46541295414137</v>
+        <v>83.6138015540986</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>86.21521951160439</v>
+        <v>89.24776727611545</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.08038854142621</v>
+        <v>38.08592610481622</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>76.98253455281744</v>
+        <v>77.26302634605413</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>85.18252878443573</v>
+        <v>85.12382837032328</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>45.67390162995066</v>
+        <v>50.04251195341759</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.94286927267903</v>
+        <v>41.82689375928922</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.7513626079377</v>
+        <v>50.95468841482919</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>57.07633025906318</v>
+        <v>56.6151010347107</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.59557275079547</v>
+        <v>16.5089542637586</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.86793933746711</v>
+        <v>46.30348945618059</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.25151372726476</v>
+        <v>56.42096338581985</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.48845555967979</v>
+        <v>16.33535067962214</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.00389233952679</v>
+        <v>44.55771678977298</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.47883562903097</v>
+        <v>52.16991270641081</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>8.529596460961123</v>
+        <v>11.68094570160553</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.52688998765222</v>
+        <v>43.64024195117099</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.68520913102441</v>
+        <v>52.26037052083209</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.84640628424992</v>
+        <v>26.75230224297578</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.59897627968443</v>
+        <v>55.23720764478221</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>53.86386524560698</v>
+        <v>62.92021621107892</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>50.22498346320771</v>
+        <v>61.39801449375469</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>64.12645466730494</v>
+        <v>70.81107290481367</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>71.07231197059082</v>
+        <v>78.29411867979427</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>23.50832164675279</v>
+        <v>27.57887089531443</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>59.29345068519959</v>
+        <v>63.22722747684995</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.14683692253813</v>
+        <v>74.76006595925868</v>
       </c>
     </row>
   </sheetData>
